--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\api-automated-testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C321332-0E5A-4056-AFE8-5A76A1427179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCD5FB8-0215-4B56-9EFA-02B942BFD30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="5850" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="3225" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>username</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,6 +63,14 @@
   <si>
     <t>登录成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -420,7 +428,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,25 +563,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4C6DFF-B6C8-4342-A361-4066496D7D76}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="1" max="2" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
